--- a/app/results/1113002217.xlsx
+++ b/app/results/1113002217.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/crissebasbol/Private/works/Cumbre-job/testing/app/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD12B9E9-ED2A-264B-BAE3-8F250B0E08CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11A5B510-9418-F446-8AF3-94D2902F5033}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16160" xr2:uid="{9C216399-C5F5-4B35-B012-FA010A2269F2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{9C216399-C5F5-4B35-B012-FA010A2269F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$H$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="125">
   <si>
     <t>Dato</t>
   </si>
@@ -334,6 +334,75 @@
   </si>
   <si>
     <t>DÉCIMA SEGUNDA</t>
+  </si>
+  <si>
+    <t>DOCUMENTO</t>
+  </si>
+  <si>
+    <t>escritura</t>
+  </si>
+  <si>
+    <t>FECHA DEL CA</t>
+  </si>
+  <si>
+    <t>SALDO QUE SE REQUIERE EN PESOS</t>
+  </si>
+  <si>
+    <t>MONTO EN PESOS DE INTERÉS MORATORIO</t>
+  </si>
+  <si>
+    <t>DELEGACION</t>
+  </si>
+  <si>
+    <t>NUMERO CRÉDITO</t>
+  </si>
+  <si>
+    <t>NOMBRE DEL ACREDITADO</t>
+  </si>
+  <si>
+    <t>MARTINEZ GONZALEZ ANA KARINA</t>
+  </si>
+  <si>
+    <t>CONDICIONES CRÉDITO OTORGADO</t>
+  </si>
+  <si>
+    <t>VSM</t>
+  </si>
+  <si>
+    <t>SUERTE PRINCIPAL</t>
+  </si>
+  <si>
+    <t>MONTO EN VSM DE INTERÉS MORATORIO</t>
+  </si>
+  <si>
+    <t>NUMERO DE HOJAS DEL CA</t>
+  </si>
+  <si>
+    <t>PRORROGAS APLICADAS</t>
+  </si>
+  <si>
+    <t>RFC DEL ACREDITADO</t>
+  </si>
+  <si>
+    <t>MAGA841230641</t>
+  </si>
+  <si>
+    <t>CURP ACREDITADO</t>
+  </si>
+  <si>
+    <t>MAGA841230MGTRNN 01</t>
+  </si>
+  <si>
+    <t>MESES ADEUDADOS EN EL CERTIFICADO DE ADEUDOS</t>
+  </si>
+  <si>
+    <t>certificado</t>
+  </si>
+  <si>
+    <t>29 DE JULIO DE 2017</t>
+  </si>
+  <si>
+    <t>No reconoce el valor</t>
   </si>
 </sst>
 </file>
@@ -414,7 +483,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -436,6 +505,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -751,1088 +824,1580 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B73BA21E-937F-47C0-9695-1AFD71078A17}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:K56"/>
+  <dimension ref="A1:L70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="H68" sqref="H68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" customWidth="1"/>
-    <col min="2" max="2" width="44.5" customWidth="1"/>
-    <col min="3" max="3" width="44.33203125" customWidth="1"/>
-    <col min="4" max="4" width="23" style="4" customWidth="1"/>
-    <col min="5" max="5" width="10.5" customWidth="1"/>
-    <col min="6" max="6" width="38.6640625" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="7"/>
-    <col min="11" max="11" width="16.5" customWidth="1"/>
+    <col min="1" max="2" width="21.1640625" customWidth="1"/>
+    <col min="3" max="3" width="44.5" customWidth="1"/>
+    <col min="4" max="4" width="44.33203125" customWidth="1"/>
+    <col min="5" max="5" width="23" style="4" customWidth="1"/>
+    <col min="6" max="6" width="10.5" customWidth="1"/>
+    <col min="7" max="7" width="38.6640625" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="7"/>
+    <col min="12" max="12" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" customHeight="1">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1">
+    <row r="2" spans="1:12" ht="15.75" customHeight="1">
       <c r="A2" s="2">
         <v>1113002217</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="D2" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="E2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
         <v>57</v>
       </c>
-      <c r="F2" t="str">
-        <f>IF(D2="OK",C2,E2)</f>
+      <c r="G2" t="str">
+        <f>IF(E2="OK",D2,F2)</f>
         <v>LEON </v>
       </c>
-      <c r="G2" s="7">
+      <c r="H2" s="7">
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1">
+    <row r="3" spans="1:12" ht="15.75" customHeight="1">
       <c r="A3" s="2">
         <v>1113002217</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="D3" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="str">
-        <f t="shared" ref="F3:F56" si="0">IF(D3="OK",C3,E3)</f>
+      <c r="E3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G66" si="0">IF(E3="OK",D3,F3)</f>
         <v>DECIMA PRIMERA</v>
       </c>
-      <c r="G3" s="7">
+      <c r="H3" s="7">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75" customHeight="1">
+    <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="A4" s="2">
         <v>1113002217</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="D4" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="str">
+      <c r="E4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="str">
         <f t="shared" si="0"/>
         <v>SEGUNDA</v>
       </c>
-      <c r="G4" s="7">
+      <c r="H4" s="7">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1">
+    <row r="5" spans="1:12" ht="15.75" customHeight="1">
       <c r="A5" s="2">
         <v>1113002217</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="D5" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" t="str">
+      <c r="E5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="str">
         <f t="shared" si="0"/>
         <v>CUARTA</v>
       </c>
-      <c r="G5" s="7">
+      <c r="H5" s="7">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.75" customHeight="1">
+    <row r="6" spans="1:12" ht="15.75" customHeight="1">
       <c r="A6" s="2">
         <v>1113002217</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="D6" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" t="str">
+      <c r="E6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" t="str">
         <f t="shared" si="0"/>
         <v>OCTAVA</v>
       </c>
-      <c r="G6" s="7">
+      <c r="H6" s="7">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1">
+    <row r="7" spans="1:12" ht="15.75" customHeight="1">
       <c r="A7" s="2">
         <v>1113002217</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="D7" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" t="str">
+      <c r="E7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" t="str">
         <f t="shared" si="0"/>
         <v>DÉCIMA QUINTA</v>
       </c>
-      <c r="G7" s="7">
+      <c r="H7" s="7">
         <v>31</v>
       </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="5"/>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" customHeight="1">
+      <c r="J7" s="5"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="5"/>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" customHeight="1">
       <c r="A8" s="2">
         <v>1113002217</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K8" s="5"/>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L8" s="5"/>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" customHeight="1">
       <c r="A9" s="2">
         <v>1113002217</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="D9" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" t="str">
+      <c r="E9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" t="str">
         <f t="shared" si="0"/>
         <v>VIGÉSIMA PRIMERA</v>
       </c>
-      <c r="G9" s="7">
+      <c r="H9" s="7">
         <v>34</v>
       </c>
-      <c r="K9" s="5"/>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L9" s="5"/>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" customHeight="1">
       <c r="A10" s="2">
         <v>1113002217</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" t="s">
         <v>37</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" t="str">
+      <c r="E10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" t="str">
         <f t="shared" si="0"/>
         <v>DECIMA</v>
       </c>
-      <c r="G10" s="7">
+      <c r="H10" s="7">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:12" ht="15.75" customHeight="1">
       <c r="A11" s="2">
         <v>1113002217</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" t="s">
         <v>66</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1">
+    <row r="12" spans="1:12" ht="15.75" customHeight="1">
       <c r="A12" s="2">
         <v>1113002217</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" t="s">
         <v>43</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>85</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="4"/>
-      <c r="F12" t="str">
+      <c r="E12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" t="str">
         <f t="shared" si="0"/>
         <v>$340,999.81 Monto (en pesos) del Credito Otorgado TREŚCIENTOS. CUARENTA MIL NOVECIENTOS NOVENTA Y NUEVE PESOS 81/100 M.N.</v>
       </c>
-      <c r="G12" s="7">
+      <c r="H12" s="7">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.75" customHeight="1">
+    <row r="13" spans="1:12" ht="15.75" customHeight="1">
       <c r="A13" s="2">
         <v>1113002217</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="D13" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="D13" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12" t="str">
+      <c r="E13" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12" t="str">
         <f t="shared" si="0"/>
         <v>FOLIO REAL R20*309941</v>
       </c>
-      <c r="G13" s="14">
+      <c r="H13" s="14">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.75" customHeight="1">
+    <row r="14" spans="1:12" ht="15.75" customHeight="1">
       <c r="A14" s="2">
         <v>1113002217</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" t="s">
         <v>9</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>90</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" t="str">
+      <c r="E14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" t="str">
         <f t="shared" si="0"/>
         <v>lote de terreno numero 2 dos, de la manzana numero 118 ciento dieciocho</v>
       </c>
-      <c r="G14" s="7">
+      <c r="H14" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1">
+    <row r="15" spans="1:12" ht="15.75" customHeight="1">
       <c r="A15" s="2">
         <v>1113002217</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12">
+      <c r="D15" s="12"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G15" s="14"/>
-    </row>
-    <row r="16" spans="1:11" ht="15.75" customHeight="1">
+      <c r="H15" s="14"/>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" customHeight="1">
       <c r="A16" s="2">
         <v>1113002217</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>91</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="4"/>
-      <c r="F16" t="str">
+      <c r="E16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" t="str">
         <f t="shared" si="0"/>
         <v>Casa habitacion marcada con el numero 203 doscientos tres, ubicada en calle Circuito Campestre Sauce, construida sobre el lote de terreno numero 2 dos, de la manzana numero 118 ciento dieciocho, del fraccionamiento Urbivilla del Roble de esta ciudad de Leon Guanajuato.</v>
       </c>
-      <c r="G16" s="7">
+      <c r="H16" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1">
       <c r="A17" s="2">
         <v>1113002217</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C17" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="D17" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="E17" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F17" t="str">
+      <c r="G17" t="str">
         <f t="shared" si="0"/>
         <v>GUANAJUATO</v>
       </c>
-      <c r="G17" s="7">
+      <c r="H17" s="7">
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1">
       <c r="A18" s="2">
         <v>1113002217</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C18" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12">
+      <c r="D18" s="12"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G18" s="14"/>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1">
+      <c r="H18" s="14"/>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1">
       <c r="A19" s="2">
         <v>1113002217</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="D19" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" t="str">
+      <c r="E19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" t="str">
         <f t="shared" si="0"/>
         <v>07 siete dias del mes de Enero del año 2013 dos mil trece</v>
       </c>
-      <c r="G19" s="7">
+      <c r="H19" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1">
       <c r="A20" s="2">
         <v>1113002217</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C20" t="s">
         <v>63</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1">
       <c r="A21" s="2">
         <v>1113002217</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" t="s">
         <v>64</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1">
       <c r="A22" s="2">
         <v>1113002217</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C22" t="s">
         <v>26</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>79</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" s="4"/>
-      <c r="F22" t="str">
+      <c r="E22" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="4"/>
+      <c r="G22" t="str">
         <f t="shared" si="0"/>
         <v>Distrito Federal o a la de los tribunales competentes en el lugar en donde se ubique el inmueble objeto de esta escritura</v>
       </c>
-      <c r="G22" s="7">
+      <c r="H22" s="7">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1">
       <c r="A23" s="2">
         <v>1113002217</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="D23" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" t="str">
+      <c r="E23" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" t="str">
         <f t="shared" si="0"/>
         <v>Leon, Estado de Guanajuato</v>
       </c>
-      <c r="G23" s="7">
+      <c r="H23" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1">
+    <row r="24" spans="1:8" ht="15.75" customHeight="1">
       <c r="A24" s="2">
         <v>1113002217</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="D24" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" t="str">
+      <c r="E24" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" t="str">
         <f t="shared" si="0"/>
         <v>AL NORESTE: 5.925 mts, cinco metros novecientos veinticinco milimetros, con calle circuito campestre sauce</v>
       </c>
-      <c r="G24" s="7">
+      <c r="H24" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1">
       <c r="A25" s="2">
         <v>1113002217</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" t="s">
         <v>55</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1">
       <c r="A26" s="2">
         <v>1113002217</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C26" t="s">
         <v>65</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1">
+    <row r="27" spans="1:8" ht="15.75" customHeight="1">
       <c r="A27" s="2">
         <v>1113002217</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" t="s">
         <v>73</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1">
+    <row r="28" spans="1:8" ht="15.75" customHeight="1">
       <c r="A28" s="2">
         <v>1113002217</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="D28" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="D28" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" t="str">
+      <c r="E28" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" t="str">
         <f t="shared" si="0"/>
         <v>AL SUROESTE: 5.925 mts, cinco metros novecientos veinticinco milimetros y linda con la casa 104 ciento cuatro</v>
       </c>
-      <c r="G28" s="7">
+      <c r="H28" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15.75" customHeight="1">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1">
       <c r="A29" s="2">
         <v>1113002217</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C29" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="D29" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="D29" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" t="str">
+      <c r="E29" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" t="str">
         <f t="shared" si="0"/>
         <v>AL SURESTE: 15.00 mts, quince metros y linda con casa 201-A doscientos uno letra A </v>
       </c>
-      <c r="G29" s="7">
+      <c r="H29" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15.75" customHeight="1">
+    <row r="30" spans="1:8" ht="15.75" customHeight="1">
       <c r="A30" s="2">
         <v>1113002217</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C30" t="s">
         <v>15</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="D30" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="D30" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F30" t="str">
+      <c r="E30" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" t="str">
         <f t="shared" si="0"/>
         <v>AL NOROESTE: 15.00 mts., quince metros y linda con la casa 203-A doscientos tres letra A</v>
       </c>
-      <c r="G30" s="7">
+      <c r="H30" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15.75" customHeight="1">
+    <row r="31" spans="1:8" ht="15.75" customHeight="1">
       <c r="A31" s="2">
         <v>1113002217</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C31" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="9"/>
-      <c r="F31">
+      <c r="D31" s="9"/>
+      <c r="G31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15.75" customHeight="1">
+    <row r="32" spans="1:8" ht="15.75" customHeight="1">
       <c r="A32" s="2">
         <v>1113002217</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C32" t="s">
         <v>17</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15.75" customHeight="1">
+    <row r="33" spans="1:8" ht="15.75" customHeight="1">
       <c r="A33" s="2">
         <v>1113002217</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C33" t="s">
         <v>52</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15.75" customHeight="1">
+    <row r="34" spans="1:8" ht="15.75" customHeight="1">
       <c r="A34" s="2">
         <v>1113002217</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C34" t="s">
         <v>53</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15.75" customHeight="1">
+    <row r="35" spans="1:8" ht="15.75" customHeight="1">
       <c r="A35" s="2">
         <v>1113002217</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C35" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15.75" customHeight="1">
+    <row r="36" spans="1:8" ht="15.75" customHeight="1">
       <c r="A36" s="2">
         <v>1113002217</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="D36" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="D36" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F36" t="str">
+      <c r="E36" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G36" t="str">
         <f t="shared" si="0"/>
         <v>360 (trescientas sesenta</v>
       </c>
-      <c r="G36" s="7">
+      <c r="H36" s="7">
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15.75" customHeight="1">
+    <row r="37" spans="1:8" ht="15.75" customHeight="1">
       <c r="A37" s="2">
         <v>1113002217</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C37" t="s">
         <v>8</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="D37" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="D37" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F37" t="str">
+      <c r="E37" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G37" t="str">
         <f t="shared" si="0"/>
         <v>LUIS ANGEL ALFONSO CHICO GONZALEZ</v>
       </c>
-      <c r="G37" s="7">
+      <c r="H37" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15.75" customHeight="1">
+    <row r="38" spans="1:8" ht="15.75" customHeight="1">
       <c r="A38" s="2">
         <v>1113002217</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C38" t="s">
         <v>4</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="D38" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D38" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F38" t="str">
+      <c r="E38" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" t="str">
         <f t="shared" si="0"/>
         <v>13,865 TRECE MIL OCHOCIENTOS SESENTA Y CINCO</v>
       </c>
-      <c r="G38" s="7">
+      <c r="H38" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15.75" customHeight="1">
+    <row r="39" spans="1:8" ht="15.75" customHeight="1">
       <c r="A39" s="2">
         <v>1113002217</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C39" t="s">
         <v>19</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="D39" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D39" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F39" t="str">
+      <c r="E39" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" t="str">
         <f t="shared" si="0"/>
         <v>PRIMERA</v>
       </c>
-      <c r="G39" s="7">
+      <c r="H39" s="7">
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="15.75" customHeight="1">
+    <row r="40" spans="1:8" ht="15.75" customHeight="1">
       <c r="A40" s="2">
         <v>1113002217</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C40" t="s">
         <v>6</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="D40" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="D40" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F40" t="str">
+      <c r="E40" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G40" t="str">
         <f t="shared" si="0"/>
         <v> 5 cinco</v>
       </c>
-      <c r="G40" s="7">
+      <c r="H40" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15.75" customHeight="1">
+    <row r="41" spans="1:8" ht="15.75" customHeight="1">
       <c r="A41" s="2">
         <v>1113002217</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C41" t="s">
         <v>3</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="15.75" customHeight="1">
+    <row r="42" spans="1:8" ht="15.75" customHeight="1">
       <c r="A42" s="2">
         <v>1113002217</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C42" t="s">
         <v>32</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="D42" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D42" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F42" t="str">
+      <c r="E42" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G42" t="str">
         <f t="shared" si="0"/>
         <v>NOVENA</v>
       </c>
-      <c r="G42" s="7">
+      <c r="H42" s="7">
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15.75" customHeight="1">
+    <row r="43" spans="1:8" ht="15.75" customHeight="1">
       <c r="A43" s="2">
         <v>1113002217</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C43" t="s">
         <v>29</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="D43" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D43" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F43" t="str">
+      <c r="E43" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G43" t="str">
         <f t="shared" si="0"/>
         <v>NOVENA</v>
       </c>
-      <c r="G43" s="7">
+      <c r="H43" s="7">
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="15.75" customHeight="1">
+    <row r="44" spans="1:8" ht="15.75" customHeight="1">
       <c r="A44" s="2">
         <v>1113002217</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C44" t="s">
         <v>25</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="D44" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D44" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F44" t="str">
+      <c r="E44" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44" t="str">
         <f t="shared" si="0"/>
         <v>DÉCIMA SEGUNDA</v>
       </c>
-      <c r="G44" s="7">
+      <c r="H44" s="7">
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="15.75" customHeight="1">
+    <row r="45" spans="1:8" ht="15.75" customHeight="1">
       <c r="A45" s="2">
         <v>1113002217</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C45" t="s">
         <v>34</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="D45" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="D45" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F45" t="str">
+      <c r="E45" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G45" t="str">
         <f t="shared" si="0"/>
         <v>30 (treinta) años</v>
       </c>
-      <c r="G45" s="7">
+      <c r="H45" s="7">
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="15.75" customHeight="1">
+    <row r="46" spans="1:8" ht="15.75" customHeight="1">
       <c r="A46" s="2">
         <v>1113002217</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C46" t="s">
         <v>33</v>
       </c>
-      <c r="C46" s="9"/>
-      <c r="D46" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E46" s="6"/>
-      <c r="F46">
+      <c r="D46" s="9"/>
+      <c r="E46" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F46" s="6"/>
+      <c r="G46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="15.75" customHeight="1">
+    <row r="47" spans="1:8" ht="15.75" customHeight="1">
       <c r="A47" s="2">
         <v>1113002217</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C47" t="s">
         <v>45</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="D47" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="D47" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F47" t="str">
+      <c r="E47" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G47" t="str">
         <f t="shared" si="0"/>
         <v>1.996 </v>
       </c>
-      <c r="G47" s="7">
+      <c r="H47" s="7">
         <v>36</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="15.75" customHeight="1">
+    <row r="48" spans="1:8" ht="15.75" customHeight="1">
       <c r="A48" s="2">
         <v>1113002217</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C48" t="s">
         <v>31</v>
       </c>
-      <c r="C48" s="9" t="s">
+      <c r="D48" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D48" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E48" s="6"/>
-      <c r="F48" t="str">
+      <c r="E48" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F48" s="6"/>
+      <c r="G48" t="str">
         <f t="shared" si="0"/>
         <v>20% (veinte por ciento)</v>
       </c>
-      <c r="G48" s="7">
+      <c r="H48" s="7">
         <v>28</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="15.75" customHeight="1">
+    <row r="49" spans="1:8" ht="15.75" customHeight="1">
       <c r="A49" s="2">
         <v>1113002217</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C49" t="s">
         <v>44</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="D49" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="D49" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F49" t="str">
+      <c r="E49" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G49" t="str">
         <f t="shared" si="0"/>
         <v>1.669 </v>
       </c>
-      <c r="G49" s="7">
+      <c r="H49" s="7">
         <v>36</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="15.75" customHeight="1">
+    <row r="50" spans="1:8" ht="15.75" customHeight="1">
       <c r="A50" s="2">
         <v>1113002217</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C50" t="s">
         <v>18</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="D50" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="D50" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F50" t="str">
+      <c r="E50" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G50" t="str">
         <f t="shared" si="0"/>
         <v>88.875 m2. Ochenta y ocho metros ochocientos setenta y cinco centimetros cuadrados</v>
       </c>
-      <c r="G50" s="7">
+      <c r="H50" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="15.75" customHeight="1">
+    <row r="51" spans="1:8" ht="15.75" customHeight="1">
       <c r="A51" s="2">
         <v>1113002217</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C51" t="s">
         <v>10</v>
       </c>
-      <c r="C51" s="9" t="s">
+      <c r="D51" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="D51" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F51" t="str">
+      <c r="E51" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G51" t="str">
         <f t="shared" si="0"/>
         <v>88.875 m2. Ochenta y ocho metros ochocientos setenta y cinco centimetros cuadrados</v>
       </c>
-      <c r="G51" s="7">
+      <c r="H51" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="15.75" customHeight="1">
+    <row r="52" spans="1:8" ht="15.75" customHeight="1">
       <c r="A52" s="2">
         <v>1113002217</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C52" t="s">
         <v>28</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>89</v>
       </c>
-      <c r="D52" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F52" t="str">
+      <c r="E52" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G52" t="str">
         <f t="shared" si="0"/>
         <v>9.5 + 4.2</v>
       </c>
-      <c r="G52" s="7">
+      <c r="H52" s="7">
         <v>36</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="15.75" customHeight="1">
+    <row r="53" spans="1:8" ht="15.75" customHeight="1">
       <c r="A53" s="2">
         <v>1113002217</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C53" t="s">
         <v>27</v>
       </c>
-      <c r="C53" s="9" t="s">
+      <c r="D53" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="D53" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F53" t="str">
+      <c r="E53" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G53" t="str">
         <f t="shared" si="0"/>
         <v>9.5% </v>
       </c>
-      <c r="G53" s="7">
+      <c r="H53" s="7">
         <v>36</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="15.75" customHeight="1">
+    <row r="54" spans="1:8" ht="15.75" customHeight="1">
       <c r="A54" s="2">
         <v>1113002217</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C54" t="s">
         <v>40</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>77</v>
       </c>
-      <c r="D54" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F54" t="str">
+      <c r="E54" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G54" t="str">
         <f t="shared" si="0"/>
         <v>El Trabajador acepta en este acto que el Saldo Insoluto del Credito se Incrementara en la misma proporcion en que aumente el Salario Minimo General Diario que rija en el Distrito Federal, a partir de la fecha en que entre en vigor en el Distrito Federal el aumento de que se trate de dicho salario, y, por consiguiente, el Trabajador se obliga a pagar al INFONAVIT el Saldo Insoluto del Credito que resultare del ajuste que se hiciere conforme a lo antes estipulado</v>
       </c>
-      <c r="G54" s="7">
+      <c r="H54" s="7">
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="15.75" customHeight="1">
+    <row r="55" spans="1:8" ht="15.75" customHeight="1">
       <c r="A55" s="2">
         <v>1113002217</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C55" t="s">
         <v>22</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>78</v>
       </c>
-      <c r="D55" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F55" t="str">
+      <c r="E55" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G55" t="str">
         <f t="shared" si="0"/>
         <v>El Trabajador la señora ANA KARINA MARTINEZ GONZALEZ, para garantizar el cumplimiento de todas y cada una de las obligaciones que el Trabajador contrae por virtud del presente Contrato, constituye hipoteca a favor del INFONAVIT sobre el inmueble relacionado en el antecedente PRIMERO de esta escritura, con la superficie, medidas y linderos ahi determinados, los cuales se tienen aqui por reproducidos como si a la letra se insertasen.</v>
       </c>
-      <c r="G55" s="7">
+      <c r="H55" s="7">
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="15.75" customHeight="1">
+    <row r="56" spans="1:8" ht="15.75" customHeight="1">
       <c r="A56" s="2">
         <v>1113002217</v>
       </c>
-      <c r="B56" s="13" t="s">
+      <c r="B56" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C56" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C56" s="9" t="s">
+      <c r="D56" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D56" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F56" t="str">
+      <c r="E56" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G56" t="str">
         <f t="shared" si="0"/>
         <v>CASA EN CONDOMINIO</v>
       </c>
-      <c r="G56" s="7">
+      <c r="H56" s="7">
         <v>53</v>
       </c>
     </row>
+    <row r="57" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A57" s="2">
+        <v>1113002217</v>
+      </c>
+      <c r="B57" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C57" t="s">
+        <v>107</v>
+      </c>
+      <c r="D57" t="s">
+        <v>72</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G57" t="str">
+        <f t="shared" si="0"/>
+        <v>GUANAJUATO</v>
+      </c>
+      <c r="H57" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A58" s="2">
+        <v>1113002217</v>
+      </c>
+      <c r="B58" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C58" t="s">
+        <v>108</v>
+      </c>
+      <c r="D58">
+        <v>1113002217</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="0"/>
+        <v>1113002217</v>
+      </c>
+      <c r="H58" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A59" s="2">
+        <v>1113002217</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C59" t="s">
+        <v>109</v>
+      </c>
+      <c r="D59" t="s">
+        <v>110</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G59" t="str">
+        <f t="shared" si="0"/>
+        <v>MARTINEZ GONZALEZ ANA KARINA</v>
+      </c>
+      <c r="H59" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A60" s="2">
+        <v>1113002217</v>
+      </c>
+      <c r="B60" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C60" t="s">
+        <v>111</v>
+      </c>
+      <c r="D60" t="s">
+        <v>112</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G60" t="str">
+        <f t="shared" si="0"/>
+        <v>VSM</v>
+      </c>
+      <c r="H60" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A61" s="2">
+        <v>1113002217</v>
+      </c>
+      <c r="B61" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C61" t="s">
+        <v>104</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F61" t="s">
+        <v>123</v>
+      </c>
+      <c r="G61" t="str">
+        <f t="shared" si="0"/>
+        <v>29 DE JULIO DE 2017</v>
+      </c>
+      <c r="H61" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A62" s="2">
+        <v>1113002217</v>
+      </c>
+      <c r="B62" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C62" t="s">
+        <v>113</v>
+      </c>
+      <c r="D62" s="16">
+        <v>1877420</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="0"/>
+        <v>1877420</v>
+      </c>
+      <c r="H62" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A63" s="2">
+        <v>1113002217</v>
+      </c>
+      <c r="B63" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C63" t="s">
+        <v>114</v>
+      </c>
+      <c r="D63" s="16">
+        <v>629330</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="0"/>
+        <v>629330</v>
+      </c>
+      <c r="H63" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A64" s="2">
+        <v>1113002217</v>
+      </c>
+      <c r="B64" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C64" t="s">
+        <v>115</v>
+      </c>
+      <c r="D64">
+        <v>3</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H64" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A65" s="2">
+        <v>1113002217</v>
+      </c>
+      <c r="B65" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C65" t="s">
+        <v>116</v>
+      </c>
+      <c r="D65" s="17">
+        <v>41729</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="0"/>
+        <v>41729</v>
+      </c>
+      <c r="H65" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A66" s="2">
+        <v>1113002217</v>
+      </c>
+      <c r="B66" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C66" t="s">
+        <v>117</v>
+      </c>
+      <c r="D66" t="s">
+        <v>118</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G66" t="str">
+        <f t="shared" si="0"/>
+        <v>MAGA841230641</v>
+      </c>
+      <c r="H66" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A67" s="2">
+        <v>1113002217</v>
+      </c>
+      <c r="B67" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C67" t="s">
+        <v>119</v>
+      </c>
+      <c r="D67" t="s">
+        <v>120</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G67" t="str">
+        <f t="shared" ref="G67:G70" si="1">IF(E67="OK",D67,F67)</f>
+        <v>MAGA841230MGTRNN 01</v>
+      </c>
+      <c r="H67" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A68" s="2">
+        <v>1113002217</v>
+      </c>
+      <c r="B68" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C68" t="s">
+        <v>121</v>
+      </c>
+      <c r="D68">
+        <v>38</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="H68" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A69" s="2">
+        <v>1113002217</v>
+      </c>
+      <c r="B69" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C69" t="s">
+        <v>105</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A70" s="2">
+        <v>1113002217</v>
+      </c>
+      <c r="B70" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C70" t="s">
+        <v>106</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:G1" xr:uid="{8EE99CC2-5C84-E848-A155-B4F71BAB1A1B}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G49">
-      <sortCondition ref="B1:B49"/>
+  <autoFilter ref="A1:H1" xr:uid="{8EE99CC2-5C84-E848-A155-B4F71BAB1A1B}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H49">
+      <sortCondition ref="C1:C49"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
